--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_21_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_21_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3277373.63964033</v>
+        <v>3267892.057478058</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11587896.62590677</v>
+        <v>11445045.20601261</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2120971.347036313</v>
+        <v>1404708.958983491</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7468603.362423067</v>
+        <v>7638969.781977754</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>309.5433674329289</v>
       </c>
       <c r="C11" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>232.5545998123424</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1536,19 +1536,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572918</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124634</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1584,7 +1584,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1593,7 +1593,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
         <v>171.6095167335022</v>
@@ -1609,22 +1609,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6347932915415</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2842774481102</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1773,19 +1773,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124551</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T16" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870211</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V16" t="n">
         <v>205.1625067052354</v>
@@ -1830,7 +1830,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
         <v>171.6095167335022</v>
@@ -1846,22 +1846,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>126.183484089188</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>37.63103777770839</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210275</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>204.0200353403094</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
         <v>339.262802037461</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2010,16 +2010,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I19" t="n">
         <v>49.3772837912455</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2058,7 +2058,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V19" t="n">
         <v>205.1625067052354</v>
@@ -2067,7 +2067,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X19" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y19" t="n">
         <v>171.6095167335022</v>
@@ -2083,22 +2083,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
-        <v>270.3823507165804</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>62.21262516958325</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>22.4956144274064</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2247,19 +2247,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124549</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2295,7 +2295,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U22" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V22" t="n">
         <v>205.1625067052354</v>
@@ -2304,7 +2304,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X22" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y22" t="n">
         <v>171.6095167335022</v>
@@ -2323,10 +2323,10 @@
         <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E23" t="n">
-        <v>242.5742208608971</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
         <v>359.9009091231189</v>
@@ -2335,7 +2335,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>179.438447948434</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>302.2658320988205</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,25 +2478,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2532,7 +2532,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
         <v>205.1625067052354</v>
@@ -2560,19 +2560,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>82.57089166076895</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>324.8205403013358</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2781,7 +2781,7 @@
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335031</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>234.4971542522534</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
         <v>307.7079050020904</v>
@@ -2803,13 +2803,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>277.6842447069453</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>322.7559640598765</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3006,7 +3006,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870207</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>294.0811679132218</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>276.6202180207488</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>266.0303678704242</v>
       </c>
       <c r="E32" t="n">
-        <v>300.0425700028455</v>
+        <v>293.277696322003</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>318.2233719914527</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>322.2690519031947</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>205.9550906370617</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>9.35173373743269</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>162.3424982086432</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>239.0995847198761</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>260.5882949671542</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>281.0784269282103</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>297.5852649057948</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>123.7392280885013</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>78.59414734836906</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>59.96279926795359</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797663</v>
+        <v>57.7812888963104</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043387</v>
+        <v>56.76837427267247</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>77.37313450876945</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572824</v>
+        <v>56.10234116406201</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>7.699746659579326</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>0.2794789197885592</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>101.1163515811831</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>130.8962755259104</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>197.5591644553541</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>197.8703245863322</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>184.2427952397861</v>
+        <v>294.0811679132218</v>
       </c>
       <c r="C35" t="n">
-        <v>318.297755152415</v>
+        <v>276.6202180207488</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>266.0303678704242</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>293.277696322003</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>318.2233719914527</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>322.2690519031947</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>205.9550906370617</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>20.53508803791706</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>162.3424982086432</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>227.9162304193922</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>260.5882949671542</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>281.0784269282103</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>297.5852649057948</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>91.17930643167853</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>78.59414734836906</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996198</v>
+        <v>59.96279926795359</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797663</v>
+        <v>57.7812888963104</v>
       </c>
       <c r="F37" t="n">
-        <v>98.4459114043387</v>
+        <v>56.76837427267247</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>77.37313450876945</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572824</v>
+        <v>56.10234116406201</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>7.699746659579326</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>163.456197182733</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870203</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>163.4849695735692</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>197.8703245863322</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>137.0569816387784</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>129.931979601836</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.758705044888</v>
+        <v>167.6325172233761</v>
       </c>
       <c r="C38" t="n">
-        <v>318.297755152415</v>
+        <v>276.6202180207488</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>266.0303678704242</v>
       </c>
       <c r="E38" t="n">
-        <v>328.9736788029587</v>
+        <v>293.277696322003</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>318.2233719914527</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>322.2690519031947</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>205.9550906370617</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>20.53508803791706</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>115.2652963893614</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>162.3424982086432</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>239.0995847198761</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>260.5882949671542</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>281.0784269282103</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.262802037461</v>
+        <v>297.5852649057948</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>91.17930643167853</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>78.59414734836906</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>77.37313450876945</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>56.10234116406201</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124551</v>
+        <v>7.699746659579326</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145475</v>
+        <v>0.2794789197885592</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>101.1163515811831</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>163.456197182733</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870211</v>
+        <v>197.5591644553541</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>163.4849695735692</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>197.8703245863322</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>137.0569816387784</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>129.931979601836</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>256.2418895442567</v>
+        <v>341.0563045318144</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>323.5953546393414</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>122.0880013351245</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>365.1985086100452</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>369.2441885217872</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>67.51022465650965</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>162.240433007954</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>209.3176348272358</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>286.0747213384687</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>307.5634315857468</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>328.0535635468028</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>344.5604015243874</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247721</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>138.1544430502711</v>
       </c>
       <c r="C43" t="n">
-        <v>36.41670903610054</v>
+        <v>125.5692839669616</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>106.9379358865462</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>104.756425514903</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>103.7435108912651</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>124.348271127362</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>103.0774777826546</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>54.67488327817191</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>69.04709389024202</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>177.871412144503</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>244.5343010739467</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>210.4601061921618</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>244.8454612049248</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>184.032118257371</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>176.9071162204286</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>341.0563045318144</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>323.5953546393413</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>313.0055044890167</v>
       </c>
       <c r="E44" t="n">
-        <v>254.4097077121118</v>
+        <v>340.2528329405956</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>365.1985086100452</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>369.2441885217872</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>126.4624530791707</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>67.51022465650962</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>307.5634315857468</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>328.0535635468028</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>344.5604015243874</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>138.1544430502711</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>125.5692839669616</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>106.9379358865461</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>104.756425514903</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>103.743510891265</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>124.348271127362</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>103.0774777826546</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>54.67488327817188</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>47.25461553838112</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>148.0914881997757</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>51.57240229658879</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>244.5343010739466</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>210.4601061921618</v>
       </c>
       <c r="W46" t="n">
-        <v>270.380862279625</v>
+        <v>244.8454612049248</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>184.0321182573709</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>176.9071162204286</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1301.367519464212</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C11" t="n">
-        <v>979.854635471874</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D11" t="n">
-        <v>669.0385698131968</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E11" t="n">
-        <v>434.1349336391136</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F11" t="n">
-        <v>434.1349336391136</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416634</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243047</v>
+        <v>2979.151531688843</v>
       </c>
       <c r="W11" t="n">
-        <v>2309.223550921006</v>
+        <v>2673.832509366802</v>
       </c>
       <c r="X11" t="n">
-        <v>1983.207425607999</v>
+        <v>2673.832509366802</v>
       </c>
       <c r="Y11" t="n">
-        <v>1640.517726580261</v>
+        <v>2331.142810339064</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5187,19 +5187,19 @@
         <v>434.8492327268793</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770423</v>
+        <v>335.4089181770422</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998346</v>
+        <v>215.1557144998345</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657656</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K13" t="n">
         <v>408.6327023328087</v>
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1400.715957574904</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232655</v>
+        <v>1079.203073582566</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>768.3870079238886</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>430.0483882737177</v>
       </c>
       <c r="F14" t="n">
-        <v>684.268901082273</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3167.077706941467</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2960.996863163376</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>2713.891011353739</v>
       </c>
       <c r="W14" t="n">
-        <v>3026.328773681787</v>
+        <v>2408.571989031698</v>
       </c>
       <c r="X14" t="n">
-        <v>2700.31264836878</v>
+        <v>2082.555863718691</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.622949341042</v>
+        <v>1739.866164690953</v>
       </c>
     </row>
     <row r="15">
@@ -5348,16 +5348,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998336</v>
@@ -5433,16 +5433,16 @@
         <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5469,19 +5469,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1584.980773859711</v>
+        <v>1806.349924052247</v>
       </c>
       <c r="C17" t="n">
-        <v>1263.467889867372</v>
+        <v>1484.837040059909</v>
       </c>
       <c r="D17" t="n">
-        <v>1136.009825130819</v>
+        <v>1174.020974401231</v>
       </c>
       <c r="E17" t="n">
-        <v>797.6712054806478</v>
+        <v>835.6823547510604</v>
       </c>
       <c r="F17" t="n">
-        <v>434.1349336391136</v>
+        <v>472.1460829095262</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>104.5232657025959</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5533,34 +5533,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3104.236671416635</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2898.155827638544</v>
+        <v>3119.524977831081</v>
       </c>
       <c r="V17" t="n">
-        <v>2898.155827638544</v>
+        <v>3119.524977831081</v>
       </c>
       <c r="W17" t="n">
-        <v>2592.836805316504</v>
+        <v>2814.20595550904</v>
       </c>
       <c r="X17" t="n">
-        <v>2266.820680003497</v>
+        <v>2488.189830196034</v>
       </c>
       <c r="Y17" t="n">
-        <v>1924.130980975759</v>
+        <v>2145.500131168295</v>
       </c>
     </row>
     <row r="18">
@@ -5570,70 +5570,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G19" t="n">
         <v>215.1557144998336</v>
@@ -5670,28 +5670,28 @@
         <v>116.3881606657647</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>158.1401341315257</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337117</v>
       </c>
       <c r="M19" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q19" t="n">
         <v>2299.337630107745</v>
@@ -5718,7 +5718,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1970.073343804959</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C20" t="n">
-        <v>1696.959858232655</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D20" t="n">
-        <v>1386.143792573978</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E20" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806479</v>
       </c>
       <c r="F20" t="n">
-        <v>684.268901082273</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G20" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5755,13 +5755,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
@@ -5782,22 +5782,22 @@
         <v>3262.76478608434</v>
       </c>
       <c r="T20" t="n">
-        <v>3104.236671416636</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U20" t="n">
-        <v>2898.155827638545</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="V20" t="n">
-        <v>2614.542573243048</v>
+        <v>3081.513828560669</v>
       </c>
       <c r="W20" t="n">
-        <v>2309.223550921007</v>
+        <v>2776.194806238628</v>
       </c>
       <c r="X20" t="n">
-        <v>2309.223550921007</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y20" t="n">
-        <v>2309.223550921007</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="21">
@@ -5834,10 +5834,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>158.1401341315257</v>
@@ -5922,25 +5922,25 @@
         <v>1162.360316885667</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S22" t="n">
         <v>2112.720554588246</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U22" t="n">
         <v>1696.750338179562</v>
@@ -5955,7 +5955,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1364.208554989044</v>
+        <v>1949.589732305505</v>
       </c>
       <c r="C23" t="n">
-        <v>1042.695670996706</v>
+        <v>1628.076848313167</v>
       </c>
       <c r="D23" t="n">
-        <v>1042.695670996706</v>
+        <v>1317.26078265449</v>
       </c>
       <c r="E23" t="n">
-        <v>797.6712054806478</v>
+        <v>978.9221630043186</v>
       </c>
       <c r="F23" t="n">
-        <v>434.1349336391136</v>
+        <v>615.3858911627843</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>247.7630739558541</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218342</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T23" t="n">
-        <v>3167.077706941466</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U23" t="n">
-        <v>2960.996863163376</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="V23" t="n">
-        <v>2677.383608767878</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="W23" t="n">
-        <v>2372.064586445837</v>
+        <v>2957.445763762298</v>
       </c>
       <c r="X23" t="n">
-        <v>2046.048461132831</v>
+        <v>2631.429638449292</v>
       </c>
       <c r="Y23" t="n">
-        <v>1703.358762105092</v>
+        <v>2288.739939421554</v>
       </c>
     </row>
     <row r="24">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C25" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D25" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E25" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F25" t="n">
         <v>335.4089181770414</v>
       </c>
       <c r="G25" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H25" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K25" t="n">
         <v>408.6327023328087</v>
@@ -6171,28 +6171,28 @@
         <v>2299.337630107745</v>
       </c>
       <c r="R25" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T25" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U25" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V25" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W25" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X25" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y25" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1728.817513434839</v>
+        <v>1791.0616176378</v>
       </c>
       <c r="C26" t="n">
-        <v>1407.304629442501</v>
+        <v>1469.548733645462</v>
       </c>
       <c r="D26" t="n">
-        <v>1096.488563783824</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E26" t="n">
-        <v>758.1499441336529</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F26" t="n">
-        <v>394.6136722921186</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H26" t="n">
         <v>66.51211643218342</v>
@@ -6235,7 +6235,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6253,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="V26" t="n">
-        <v>3041.992567213673</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="W26" t="n">
-        <v>2736.673544891632</v>
+        <v>2798.917649094593</v>
       </c>
       <c r="X26" t="n">
-        <v>2410.657419578626</v>
+        <v>2472.901523781587</v>
       </c>
       <c r="Y26" t="n">
-        <v>2067.967720550888</v>
+        <v>2130.211824753849</v>
       </c>
     </row>
     <row r="27">
@@ -6369,10 +6369,10 @@
         <v>535.3126933611982</v>
       </c>
       <c r="E28" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F28" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G28" t="n">
         <v>215.1557144998336</v>
@@ -6384,7 +6384,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K28" t="n">
         <v>408.6327023328087</v>
@@ -6405,28 +6405,28 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q28" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R28" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T28" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U28" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V28" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W28" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X28" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y28" t="n">
         <v>893.6650816874605</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1570.289398767135</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C29" t="n">
-        <v>1333.423586391121</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D29" t="n">
-        <v>1022.607520732444</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E29" t="n">
-        <v>684.2689010822731</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F29" t="n">
-        <v>684.2689010822731</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G29" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T29" t="n">
-        <v>3167.077706941467</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U29" t="n">
-        <v>3167.077706941467</v>
+        <v>3056.683942306249</v>
       </c>
       <c r="V29" t="n">
-        <v>2883.464452545969</v>
+        <v>2776.194806238627</v>
       </c>
       <c r="W29" t="n">
-        <v>2578.145430223929</v>
+        <v>2776.194806238627</v>
       </c>
       <c r="X29" t="n">
-        <v>2252.129304910922</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y29" t="n">
-        <v>1909.439605883183</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9796998254603</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D31" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E31" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F31" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G31" t="n">
         <v>215.1557144998337</v>
       </c>
       <c r="H31" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I31" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K31" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L31" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M31" t="n">
         <v>1162.360316885667</v>
@@ -6642,13 +6642,13 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q31" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R31" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T31" t="n">
         <v>1938.403572105846</v>
@@ -6660,13 +6660,13 @@
         <v>1489.515482921749</v>
       </c>
       <c r="W31" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X31" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874609</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1983.207425608</v>
+        <v>1765.881608093684</v>
       </c>
       <c r="C32" t="n">
-        <v>1661.694541615662</v>
+        <v>1486.467246456564</v>
       </c>
       <c r="D32" t="n">
-        <v>1350.878475956985</v>
+        <v>1217.749703153105</v>
       </c>
       <c r="E32" t="n">
-        <v>1047.805172923807</v>
+        <v>921.5096058581522</v>
       </c>
       <c r="F32" t="n">
-        <v>684.2689010822731</v>
+        <v>600.0718563718364</v>
       </c>
       <c r="G32" t="n">
-        <v>316.6460838753429</v>
+        <v>274.5475615201245</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3262.76478608434</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3104.236671416635</v>
+        <v>3316.159625914795</v>
       </c>
       <c r="U32" t="n">
-        <v>2898.155827638545</v>
+        <v>3152.177304491923</v>
       </c>
       <c r="V32" t="n">
-        <v>2614.542573243048</v>
+        <v>2910.662572451644</v>
       </c>
       <c r="W32" t="n">
-        <v>2309.223550921007</v>
+        <v>2647.442072484821</v>
       </c>
       <c r="X32" t="n">
-        <v>1983.207425608</v>
+        <v>2363.524469527033</v>
       </c>
       <c r="Y32" t="n">
-        <v>1983.207425608</v>
+        <v>2062.933292854514</v>
       </c>
     </row>
     <row r="33">
@@ -6776,10 +6776,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>759.4662498052944</v>
+        <v>464.7765933187656</v>
       </c>
       <c r="C34" t="n">
-        <v>637.9796998254608</v>
+        <v>385.3885656941504</v>
       </c>
       <c r="D34" t="n">
-        <v>535.3126933611984</v>
+        <v>324.8200815851063</v>
       </c>
       <c r="E34" t="n">
-        <v>434.8492327268785</v>
+        <v>266.4551433060049</v>
       </c>
       <c r="F34" t="n">
-        <v>335.4089181770415</v>
+        <v>209.1133511113863</v>
       </c>
       <c r="G34" t="n">
-        <v>215.1557144998337</v>
+        <v>130.9586697893969</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3881606657648</v>
+        <v>74.28963831054638</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>158.1401341315256</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>408.6327023328086</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>771.6978860337115</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>1162.360316885667</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>1550.274078843938</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>1896.109063016758</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>2175.221948702824</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>2299.337630107746</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>2256.956805813347</v>
+        <v>1927.012246149312</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.720554588247</v>
+        <v>1824.87451727943</v>
       </c>
       <c r="T34" t="n">
-        <v>1938.403572105846</v>
+        <v>1692.656057152248</v>
       </c>
       <c r="U34" t="n">
-        <v>1696.750338179563</v>
+        <v>1493.101345581184</v>
       </c>
       <c r="V34" t="n">
-        <v>1489.515482921749</v>
+        <v>1238.416857375297</v>
       </c>
       <c r="W34" t="n">
-        <v>1247.547945832862</v>
+        <v>1038.547842641628</v>
       </c>
       <c r="X34" t="n">
-        <v>1067.008027882918</v>
+        <v>810.5582917436102</v>
       </c>
       <c r="Y34" t="n">
-        <v>893.6650816874608</v>
+        <v>589.7657126000801</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2018.472742224994</v>
+        <v>1765.881608093684</v>
       </c>
       <c r="C35" t="n">
-        <v>1696.959858232656</v>
+        <v>1486.467246456564</v>
       </c>
       <c r="D35" t="n">
-        <v>1386.143792573978</v>
+        <v>1217.749703153105</v>
       </c>
       <c r="E35" t="n">
-        <v>1047.805172923807</v>
+        <v>921.5096058581522</v>
       </c>
       <c r="F35" t="n">
-        <v>684.2689010822731</v>
+        <v>600.0718563718364</v>
       </c>
       <c r="G35" t="n">
-        <v>316.6460838753429</v>
+        <v>274.5475615201245</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3304.863308439558</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3304.863308439558</v>
       </c>
       <c r="U35" t="n">
-        <v>3119.52497783108</v>
+        <v>3140.880987016687</v>
       </c>
       <c r="V35" t="n">
-        <v>2835.911723435583</v>
+        <v>2910.662572451644</v>
       </c>
       <c r="W35" t="n">
-        <v>2530.592701113542</v>
+        <v>2647.442072484821</v>
       </c>
       <c r="X35" t="n">
-        <v>2204.576575800535</v>
+        <v>2363.524469527033</v>
       </c>
       <c r="Y35" t="n">
-        <v>2204.576575800535</v>
+        <v>2062.933292854514</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.4662498052944</v>
+        <v>464.7765933187656</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9796998254608</v>
+        <v>385.3885656941504</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3126933611984</v>
+        <v>324.8200815851063</v>
       </c>
       <c r="E37" t="n">
-        <v>434.8492327268785</v>
+        <v>266.4551433060049</v>
       </c>
       <c r="F37" t="n">
-        <v>335.4089181770415</v>
+        <v>209.1133511113863</v>
       </c>
       <c r="G37" t="n">
-        <v>215.1557144998337</v>
+        <v>130.9586697893969</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3881606657648</v>
+        <v>74.28963831054639</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>158.1401341315256</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>408.6327023328086</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>771.6978860337115</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>1162.360316885667</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>1550.274078843938</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>1896.109063016758</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>2175.221948702824</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>2299.337630107746</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>2256.956805813347</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.720554588247</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1938.403572105846</v>
+        <v>1480.670936791299</v>
       </c>
       <c r="U37" t="n">
-        <v>1696.750338179563</v>
+        <v>1191.568069916942</v>
       </c>
       <c r="V37" t="n">
-        <v>1489.515482921749</v>
+        <v>1026.431737014347</v>
       </c>
       <c r="W37" t="n">
-        <v>1247.547945832862</v>
+        <v>826.5627222806777</v>
       </c>
       <c r="X37" t="n">
-        <v>1067.008027882918</v>
+        <v>688.121326685952</v>
       </c>
       <c r="Y37" t="n">
-        <v>893.6650816874608</v>
+        <v>556.8769028457136</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2012.430767830337</v>
+        <v>1765.881608093684</v>
       </c>
       <c r="C38" t="n">
-        <v>1690.917883837998</v>
+        <v>1486.467246456564</v>
       </c>
       <c r="D38" t="n">
-        <v>1380.101818179321</v>
+        <v>1217.749703153105</v>
       </c>
       <c r="E38" t="n">
-        <v>1047.805172923807</v>
+        <v>921.5096058581522</v>
       </c>
       <c r="F38" t="n">
-        <v>684.2689010822731</v>
+        <v>600.0718563718364</v>
       </c>
       <c r="G38" t="n">
-        <v>316.6460838753429</v>
+        <v>274.5475615201245</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3304.863308439558</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3188.433716127072</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>3024.4513947042</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.605821609171</v>
+        <v>2782.936662663921</v>
       </c>
       <c r="W38" t="n">
-        <v>3020.28679928713</v>
+        <v>2519.716162697099</v>
       </c>
       <c r="X38" t="n">
-        <v>2694.270673974123</v>
+        <v>2235.798559739311</v>
       </c>
       <c r="Y38" t="n">
-        <v>2351.580974946385</v>
+        <v>1935.207383066791</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7259,7 +7259,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.466249805294</v>
+        <v>733.4210592286407</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9796998254603</v>
+        <v>654.0330316040255</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3126933611979</v>
+        <v>503.9163921916897</v>
       </c>
       <c r="E40" t="n">
-        <v>434.8492327268782</v>
+        <v>356.0032986092966</v>
       </c>
       <c r="F40" t="n">
-        <v>335.4089181770412</v>
+        <v>209.1133511113863</v>
       </c>
       <c r="G40" t="n">
-        <v>215.1557144998337</v>
+        <v>130.9586697893969</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3881606657648</v>
+        <v>74.28963831054639</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>158.1401341315257</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>408.6327023328087</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>771.6978860337115</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>1162.360316885667</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>1550.274078843938</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>1896.109063016758</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>2175.221948702825</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>2299.337630107746</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>2256.956805813347</v>
+        <v>1927.012246149312</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.720554588247</v>
+        <v>1824.87451727943</v>
       </c>
       <c r="T40" t="n">
-        <v>1938.403572105846</v>
+        <v>1659.767247397882</v>
       </c>
       <c r="U40" t="n">
-        <v>1696.750338179563</v>
+        <v>1460.212535826817</v>
       </c>
       <c r="V40" t="n">
-        <v>1489.515482921749</v>
+        <v>1295.076202924222</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.547945832861</v>
+        <v>1095.207188190553</v>
       </c>
       <c r="X40" t="n">
-        <v>1067.008027882917</v>
+        <v>956.7657925958272</v>
       </c>
       <c r="Y40" t="n">
-        <v>893.6650816874603</v>
+        <v>825.5213687555887</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2303.170539913434</v>
+        <v>1258.558634721374</v>
       </c>
       <c r="C41" t="n">
-        <v>1934.208022973022</v>
+        <v>931.6946401361804</v>
       </c>
       <c r="D41" t="n">
-        <v>1575.942324366272</v>
+        <v>931.6946401361804</v>
       </c>
       <c r="E41" t="n">
-        <v>1190.154071768027</v>
+        <v>808.3734266663577</v>
       </c>
       <c r="F41" t="n">
-        <v>779.1681669784198</v>
+        <v>439.4860442319685</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3257.413675491485</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3093.534450230925</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2882.10249585998</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>2593.138130871628</v>
       </c>
       <c r="W41" t="n">
-        <v>3325.605821609171</v>
+        <v>2282.467997956732</v>
       </c>
       <c r="X41" t="n">
-        <v>2952.140063348091</v>
+        <v>1951.10076205087</v>
       </c>
       <c r="Y41" t="n">
-        <v>2562.000731372279</v>
+        <v>1603.059952430277</v>
       </c>
     </row>
     <row r="42">
@@ -7487,10 +7487,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>270.9995076393842</v>
+        <v>796.9240239552789</v>
       </c>
       <c r="C43" t="n">
-        <v>234.2149530574645</v>
+        <v>670.0863633825903</v>
       </c>
       <c r="D43" t="n">
-        <v>234.2149530574645</v>
+        <v>562.068246325473</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574645</v>
+        <v>456.2536750982982</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>351.4622499556062</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>225.8579356855436</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>121.7392712586197</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>152.8955106394685</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>398.1434553486944</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>755.9640155575401</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>1141.381822917439</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1524.050961383653</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1864.641322064416</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>2138.509584258424</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>2257.380642171288</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>2257.380642171288</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>2187.636102888216</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>2007.96800981296</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610489</v>
+        <v>1760.963665293822</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046018</v>
+        <v>1548.377699443153</v>
       </c>
       <c r="W43" t="n">
-        <v>680.6375233676413</v>
+        <v>1301.059051761411</v>
       </c>
       <c r="X43" t="n">
-        <v>452.6479724696239</v>
+        <v>1115.168023218612</v>
       </c>
       <c r="Y43" t="n">
-        <v>452.6479724696239</v>
+        <v>936.4739664303003</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1032.061124352531</v>
+        <v>1922.834179341231</v>
       </c>
       <c r="C44" t="n">
-        <v>1032.061124352531</v>
+        <v>1595.970184756037</v>
       </c>
       <c r="D44" t="n">
-        <v>1032.061124352531</v>
+        <v>1279.803008504505</v>
       </c>
       <c r="E44" t="n">
-        <v>775.0816216130238</v>
+        <v>936.1132782614795</v>
       </c>
       <c r="F44" t="n">
-        <v>364.0957168234162</v>
+        <v>567.2258958270904</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>194.2519680273053</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3257.413675491485</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993393</v>
+        <v>3257.413675491485</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267229</v>
+        <v>3257.413675491485</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923658</v>
+        <v>3257.413675491485</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.266054653544</v>
+        <v>2946.743542576589</v>
       </c>
       <c r="X44" t="n">
-        <v>1808.800296392464</v>
+        <v>2615.376306670727</v>
       </c>
       <c r="Y44" t="n">
-        <v>1418.660964416652</v>
+        <v>2267.335497050134</v>
       </c>
     </row>
     <row r="45">
@@ -7703,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218342</v>
+        <v>796.9240239552787</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218342</v>
+        <v>670.0863633825902</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218342</v>
+        <v>562.0682463254728</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218342</v>
+        <v>456.2536750982981</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>351.4622499556061</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>225.8579356855435</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>121.7392712586197</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>152.8955106394685</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>398.1434553486945</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>755.9640155575402</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>1141.381822917439</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1524.050961383653</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1864.641322064416</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>2138.509584258425</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>2257.380642171289</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>2209.648707284035</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>2060.06134546608</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>2007.96800981296</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610489</v>
+        <v>1760.963665293822</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046018</v>
+        <v>1548.377699443153</v>
       </c>
       <c r="W46" t="n">
-        <v>696.9427113039706</v>
+        <v>1301.059051761411</v>
       </c>
       <c r="X46" t="n">
-        <v>468.9531604059532</v>
+        <v>1115.168023218612</v>
       </c>
       <c r="Y46" t="n">
-        <v>248.1605812624231</v>
+        <v>936.4739664303</v>
       </c>
     </row>
   </sheetData>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>152.2108253758118</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>176.873542120984</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>182.1527623023294</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>170.6907143895757</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>168.7922560961752</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>172.8557019027612</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>182.37783823313</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6175011982805</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>109.6636510644739</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>108.4883792396238</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>99.08556857396204</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>96.07579286827539</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>84.0644464394714</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>99.3467827438664</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>99.26290145971953</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.7780516067393</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>112.2275406460176</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>115.0370111850937</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>104.3647933249819</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>116.9160502008698</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>119.2963951161052</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280011</v>
+        <v>100.9387195582597</v>
       </c>
       <c r="K8" t="n">
-        <v>86.72591490550931</v>
+        <v>100.0299464227919</v>
       </c>
       <c r="L8" t="n">
-        <v>70.31665934305323</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729363</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N8" t="n">
-        <v>42.33948647951536</v>
+        <v>61.00144891149961</v>
       </c>
       <c r="O8" t="n">
-        <v>53.44993733213093</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P8" t="n">
-        <v>80.46778072209531</v>
+        <v>95.50771753390021</v>
       </c>
       <c r="Q8" t="n">
-        <v>109.0872921559756</v>
+        <v>120.3816583481039</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913167</v>
+        <v>79.12633608862856</v>
       </c>
       <c r="K9" t="n">
-        <v>47.25897875440141</v>
+        <v>56.29524403393702</v>
       </c>
       <c r="L9" t="n">
-        <v>16.75508344424118</v>
+        <v>28.90545725697471</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>14.17891314335149</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.130000058643361</v>
+        <v>22.44423757443683</v>
       </c>
       <c r="P9" t="n">
-        <v>26.85597970277001</v>
+        <v>37.54182911310821</v>
       </c>
       <c r="Q9" t="n">
-        <v>68.37594193669796</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>74.37427626277801</v>
+        <v>79.82491575659759</v>
       </c>
       <c r="L10" t="n">
-        <v>64.96559098237566</v>
+        <v>71.94053294496764</v>
       </c>
       <c r="M10" t="n">
-        <v>65.20591187910269</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N10" t="n">
-        <v>55.71856618250388</v>
+        <v>62.89780050171086</v>
       </c>
       <c r="O10" t="n">
-        <v>71.98338581476828</v>
+        <v>78.61457070130248</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615825</v>
+        <v>86.52286261917671</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.96299667475891</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.25430980652214</v>
+        <v>14.35889816588482</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>26.21533761195911</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>102.4006336413268</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210275</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>36.14232856000083</v>
       </c>
       <c r="W14" t="n">
-        <v>5.981554650710223</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>181.5244209129024</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687278</v>
+        <v>210.0015899910195</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>47.91540443583449</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>258.281507424136</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24211,10 +24211,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>92.38101259277209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>247.6326277687279</v>
+        <v>68.19417982029393</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>225.1370133413214</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>39.12604873352507</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>83.80060090016161</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>3.092877144597026</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>34.91266345082369</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>20.53508803791706</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>105.9135626519287</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>151.5159098051019</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>115.2652963893614</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>11.18335430048396</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>126.4486506898457</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>5.981554650710564</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>126.4919521192239</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>313.0055044890167</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>218.1648316054711</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>252.9302272556542</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>130.8301120625273</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>47.25461553838115</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>79.04439430953369</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>127.52066236015</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>126.4677741764836</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>162.2404330079539</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>209.3176348272358</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>286.0747213384687</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>126.2990098479142</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>745420.5419759087</v>
+        <v>768303.8467816497</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>695584.1760639198</v>
+        <v>702671.3745525137</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>624433.6311771329</v>
+        <v>624433.6311771331</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>624433.6311771331</v>
+        <v>624433.6311771329</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>624433.6311771331</v>
+        <v>624433.6311771329</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>624433.6311771329</v>
+        <v>624433.6311771331</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>624433.6311771331</v>
+        <v>661589.989080756</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>624433.6311771329</v>
+        <v>661589.989080756</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>624433.6311771331</v>
+        <v>661589.989080756</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>558404.1816187318</v>
+        <v>617285.7742934683</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>558404.1816187317</v>
+        <v>617285.7742934686</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811862</v>
+        <v>778312.5217811867</v>
       </c>
       <c r="C2" t="n">
-        <v>778338.2129835364</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="D2" t="n">
-        <v>778391.8038845116</v>
+        <v>778383.8949127767</v>
       </c>
       <c r="E2" t="n">
-        <v>726304.4593953519</v>
+        <v>726304.4593953518</v>
       </c>
       <c r="F2" t="n">
-        <v>726304.4593953505</v>
+        <v>726304.4593953508</v>
       </c>
       <c r="G2" t="n">
         <v>726304.459395351</v>
       </c>
       <c r="H2" t="n">
+        <v>726304.4593953508</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726304.459395351</v>
+      </c>
+      <c r="J2" t="n">
         <v>726304.4593953509</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726304.4593953509</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726304.4593953517</v>
       </c>
       <c r="K2" t="n">
         <v>726304.4593953509</v>
       </c>
       <c r="L2" t="n">
-        <v>726304.4593953509</v>
+        <v>770427.6344059033</v>
       </c>
       <c r="M2" t="n">
-        <v>726304.4593953509</v>
+        <v>770427.6344059034</v>
       </c>
       <c r="N2" t="n">
-        <v>726304.459395351</v>
+        <v>770427.6344059035</v>
       </c>
       <c r="O2" t="n">
-        <v>647894.4880447489</v>
+        <v>717816.3793459985</v>
       </c>
       <c r="P2" t="n">
-        <v>647894.4880447488</v>
+        <v>717816.3793459984</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>76955.4613211384</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>150973.6771990664</v>
+        <v>201068.9115716352</v>
       </c>
       <c r="E3" t="n">
-        <v>951823.5594950286</v>
+        <v>972725.1766621993</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>37580.10929487409</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>33342.02970533297</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>457775.3608255375</v>
       </c>
       <c r="C4" t="n">
-        <v>430316.1276694619</v>
+        <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>373572.6966267998</v>
+        <v>381670.0168655998</v>
       </c>
       <c r="E4" t="n">
-        <v>60655.33327364783</v>
+        <v>60655.33327364779</v>
       </c>
       <c r="F4" t="n">
-        <v>60655.33327364782</v>
+        <v>60655.33327364779</v>
       </c>
       <c r="G4" t="n">
-        <v>60655.33327364779</v>
+        <v>60655.33327364778</v>
       </c>
       <c r="H4" t="n">
-        <v>60655.33327364782</v>
+        <v>60655.33327364778</v>
       </c>
       <c r="I4" t="n">
-        <v>60655.33327364777</v>
+        <v>60655.33327364778</v>
       </c>
       <c r="J4" t="n">
-        <v>60655.33327364779</v>
+        <v>60655.3332736478</v>
       </c>
       <c r="K4" t="n">
-        <v>60655.33327364779</v>
+        <v>60655.33327364775</v>
       </c>
       <c r="L4" t="n">
-        <v>60655.33327364775</v>
+        <v>87048.89384871663</v>
       </c>
       <c r="M4" t="n">
-        <v>60655.33327364775</v>
+        <v>87048.89384871663</v>
       </c>
       <c r="N4" t="n">
-        <v>60655.33327364779</v>
+        <v>87048.89384871663</v>
       </c>
       <c r="O4" t="n">
-        <v>13430.06689216532</v>
+        <v>55542.55291715211</v>
       </c>
       <c r="P4" t="n">
-        <v>13430.06689216532</v>
+        <v>55542.55291715213</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>35469.92964214971</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>39312.96135688073</v>
+        <v>38745.80483114667</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="H5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="I5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="J5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="K5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="L5" t="n">
-        <v>78255.49332178176</v>
+        <v>81759.2821909038</v>
       </c>
       <c r="M5" t="n">
-        <v>78255.49332178175</v>
+        <v>81759.2821909038</v>
       </c>
       <c r="N5" t="n">
-        <v>78255.49332178176</v>
+        <v>81759.2821909038</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>77810.12943051534</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>77810.12943051534</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>286909.5609556488</v>
+        <v>286865.4251769681</v>
       </c>
       <c r="C6" t="n">
-        <v>235596.6943507864</v>
+        <v>286865.4251769678</v>
       </c>
       <c r="D6" t="n">
-        <v>214532.4687017647</v>
+        <v>156856.9041060189</v>
       </c>
       <c r="E6" t="n">
-        <v>-364429.9266951062</v>
+        <v>-386744.3128616381</v>
       </c>
       <c r="F6" t="n">
-        <v>587393.6327999207</v>
+        <v>585980.8638005602</v>
       </c>
       <c r="G6" t="n">
-        <v>587393.6327999214</v>
+        <v>585980.8638005602</v>
       </c>
       <c r="H6" t="n">
-        <v>587393.6327999213</v>
+        <v>585980.8638005604</v>
       </c>
       <c r="I6" t="n">
-        <v>587393.6327999213</v>
+        <v>585980.8638005605</v>
       </c>
       <c r="J6" t="n">
-        <v>549813.523505048</v>
+        <v>548400.7545056862</v>
       </c>
       <c r="K6" t="n">
-        <v>587393.6327999213</v>
+        <v>585980.8638005605</v>
       </c>
       <c r="L6" t="n">
-        <v>587393.6327999214</v>
+        <v>568025.7958460771</v>
       </c>
       <c r="M6" t="n">
-        <v>380205.0645078485</v>
+        <v>394179.2572593371</v>
       </c>
       <c r="N6" t="n">
-        <v>587393.6327999214</v>
+        <v>601367.8255514103</v>
       </c>
       <c r="O6" t="n">
-        <v>560158.0805911903</v>
+        <v>582827.5574713555</v>
       </c>
       <c r="P6" t="n">
-        <v>560158.0805911901</v>
+        <v>582827.5574713553</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
     </row>
     <row r="3">
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>84.51053404356503</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>260.7963925174648</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26752,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
@@ -26816,22 +26816,22 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="M4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>41.67753713166621</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26962,19 +26962,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>84.51053404356503</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>176.2858584738998</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
-        <v>828.9803080758332</v>
+        <v>854.9966624673041</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27633,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>335.995431234265</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>197.3780308218047</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,19 +27660,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>128.5278723768719</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>201.278225186174</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>221.6086340353848</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3184736406064</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27709,16 +27709,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.1617397880981</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4798574821198</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>83.13806971705672</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>88.87169151188175</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>168.3067360880407</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>199.4320383100477</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9294230431385</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27788,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.8385833134622</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>160.8722331255608</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>150.8675102286335</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>82.58477973541368</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>4.563842234460544</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,22 +27815,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>73.40095261111607</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>170.4411110266863</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>221.3607505982589</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.2944426905688</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3107168449456</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>328.737591844935</v>
+        <v>329.8087073802583</v>
       </c>
       <c r="I8" t="n">
-        <v>170.0563803341062</v>
+        <v>174.0885230584365</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>84.01082088999308</v>
+        <v>90.58066941881005</v>
       </c>
       <c r="S8" t="n">
-        <v>185.1290231762283</v>
+        <v>187.5123304152058</v>
       </c>
       <c r="T8" t="n">
-        <v>218.5063572696783</v>
+        <v>218.9641928127885</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2701457598965</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7825588849655</v>
+        <v>136.8385185906377</v>
       </c>
       <c r="H9" t="n">
-        <v>106.817768233445</v>
+        <v>107.3582211803319</v>
       </c>
       <c r="I9" t="n">
-        <v>70.08293774516886</v>
+        <v>72.00962059397116</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>65.32921403493339</v>
+        <v>68.80362453272261</v>
       </c>
       <c r="S9" t="n">
-        <v>161.2636171197674</v>
+        <v>162.3030441088983</v>
       </c>
       <c r="T9" t="n">
-        <v>197.9036731785617</v>
+        <v>198.1292300623896</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9044769310903</v>
+        <v>225.908158490674</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5206907817879</v>
+        <v>167.5676055192152</v>
       </c>
       <c r="H10" t="n">
-        <v>158.0458795257661</v>
+        <v>158.4629941912556</v>
       </c>
       <c r="I10" t="n">
-        <v>141.3076148215571</v>
+        <v>142.7184689252781</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604451</v>
+        <v>63.42664968215054</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.78178798155719</v>
+        <v>50.71025749466926</v>
       </c>
       <c r="R10" t="n">
-        <v>156.1475068297698</v>
+        <v>158.2569640235438</v>
       </c>
       <c r="S10" t="n">
-        <v>215.8207507508087</v>
+        <v>216.6383466748816</v>
       </c>
       <c r="T10" t="n">
-        <v>225.9361746006879</v>
+        <v>226.1366284787861</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2959362379867</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859108</v>
       </c>
       <c r="N19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859119</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859148</v>
       </c>
       <c r="O22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859165</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>56.09275209343599</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859267</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859267</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859254</v>
+        <v>56.09275209343616</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859254</v>
+        <v>88.65267375025877</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859258</v>
+        <v>56.09275209343616</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859258</v>
+        <v>88.65267375025877</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>41.67753713166618</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>41.67753713166622</v>
       </c>
     </row>
   </sheetData>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3397408403761406</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3.479370881502151</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>13.09785874860117</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.83507915087449</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>43.21630892399653</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>53.61365266765785</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>59.65551883769704</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>60.62080750041575</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>57.2425095189255</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>48.85515752213952</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.68818867616898</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>21.34124556427776</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>7.741844400071311</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.487215528746556</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02717926723009124</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1817773751125739</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.7555867543767</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6.258563134358354</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>17.17397560219278</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>29.35305973473523</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>39.46881120591215</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>46.05824105374293</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>47.27726564386192</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>43.24946170057804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>34.71150595461071</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>23.20372247928223</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11.28614264076139</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>3.376435015797148</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7326903847739268</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01195903783635355</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1523960449965927</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.354939381878798</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>4.582964698624806</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>10.7744003812591</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>17.70564959142231</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>22.6571356352207</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>23.88877276251134</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>23.32075114025133</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>21.54048825097294</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.43160893304244</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.76109064057832</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>6.852280350483156</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2.655847438713346</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6511467377127139</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0083125115452687</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.048427708612923</v>
+        <v>0.9438393492502272</v>
       </c>
       <c r="H8" t="n">
-        <v>10.7372102708321</v>
+        <v>9.666094735508892</v>
       </c>
       <c r="I8" t="n">
-        <v>40.41950923629976</v>
+        <v>36.38736651196942</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388617</v>
+        <v>80.10718496842655</v>
       </c>
       <c r="K8" t="n">
-        <v>133.3639361394712</v>
+        <v>120.0599046221887</v>
       </c>
       <c r="L8" t="n">
-        <v>165.449755626934</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M8" t="n">
-        <v>184.0947318899791</v>
+        <v>165.7299311340341</v>
       </c>
       <c r="N8" t="n">
-        <v>187.0735771170756</v>
+        <v>168.4116146850913</v>
       </c>
       <c r="O8" t="n">
-        <v>176.6482740895558</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P8" t="n">
-        <v>150.7652150331742</v>
+        <v>135.7252782213693</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.2183977184739</v>
+        <v>101.9240315263455</v>
       </c>
       <c r="R8" t="n">
-        <v>65.8582970511566</v>
+        <v>59.28844852233964</v>
       </c>
       <c r="S8" t="n">
-        <v>23.89104641001701</v>
+        <v>21.50773917103957</v>
       </c>
       <c r="T8" t="n">
-        <v>4.589492294453073</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.07550714794001816</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5049985725728932</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051488</v>
+        <v>4.877223056164522</v>
       </c>
       <c r="I9" t="n">
-        <v>19.31369510624622</v>
+        <v>17.38701225744391</v>
       </c>
       <c r="J9" t="n">
-        <v>52.99825557753501</v>
+        <v>47.71129057803813</v>
       </c>
       <c r="K9" t="n">
-        <v>90.58246021995758</v>
+        <v>81.54619494042197</v>
       </c>
       <c r="L9" t="n">
-        <v>121.799296335633</v>
+        <v>109.6489225228995</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>127.9551207786668</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>133.4662443858011</v>
+        <v>120.1520068700076</v>
       </c>
       <c r="P9" t="n">
-        <v>107.1184277115602</v>
+        <v>96.43257830122204</v>
       </c>
       <c r="Q9" t="n">
-        <v>71.60583214932356</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R9" t="n">
-        <v>34.82862011770975</v>
+        <v>31.35420961992052</v>
       </c>
       <c r="S9" t="n">
-        <v>10.41955398407041</v>
+        <v>9.380126994939479</v>
       </c>
       <c r="T9" t="n">
-        <v>2.261055516259907</v>
+        <v>2.035498632431968</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03322359030084825</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H10" t="n">
-        <v>4.181292981673455</v>
+        <v>3.764178316183975</v>
       </c>
       <c r="I10" t="n">
-        <v>14.14286010570121</v>
+        <v>12.73200600198015</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062826</v>
+        <v>29.93253043452224</v>
       </c>
       <c r="K10" t="n">
-        <v>54.63898190775737</v>
+        <v>49.18834241393778</v>
       </c>
       <c r="L10" t="n">
-        <v>69.91908529886263</v>
+        <v>62.94414333627064</v>
       </c>
       <c r="M10" t="n">
-        <v>73.71987206850237</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N10" t="n">
-        <v>71.96697828272931</v>
+        <v>64.78774396352233</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707451</v>
+        <v>59.84196775054031</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298936</v>
+        <v>51.20514142997091</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013719</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R10" t="n">
-        <v>21.14588454739968</v>
+        <v>19.03642735362569</v>
       </c>
       <c r="S10" t="n">
-        <v>8.195847286163604</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T10" t="n">
-        <v>2.009414827593581</v>
+        <v>1.808960949495364</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02309311850419617</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32089,7 +32089,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -34131,7 +34131,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953992</v>
       </c>
       <c r="K41" t="n">
         <v>557.281137600381</v>
@@ -34386,7 +34386,7 @@
         <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
         <v>473.099994678169</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
@@ -35579,7 +35579,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35737,7 +35737,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629122</v>
@@ -35816,16 +35816,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120764</v>
+        <v>394.608516012075</v>
       </c>
       <c r="N19" t="n">
         <v>391.8320827861327</v>
@@ -36062,7 +36062,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564848</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629122</v>
@@ -36290,16 +36290,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861315</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L25" t="n">
         <v>366.7325087887907</v>
@@ -36536,7 +36536,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564853</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37001,7 +37001,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165877</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887908</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165877</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887908</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37560,13 +37560,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>87.25595374473241</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>247.7251966759858</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>361.4349093018643</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>389.31091652515</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>386.5344832992063</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>344.0306673543059</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>276.6346082767766</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>120.0717756695598</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>87.25595374473244</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>247.7251966759858</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>361.4349093018643</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>389.31091652515</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>386.5344832992063</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>344.030667354306</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>276.6346082767766</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>120.0717756695599</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
